--- a/DatabaseDefination.xlsx
+++ b/DatabaseDefination.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\hungtd\projects\hungtd\ERP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D15D8A-7088-49A0-A4B0-ACC5DF3D4B84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D53FA8C-C894-4E4B-BF50-0968615A95D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="792" firstSheet="1" activeTab="2" xr2:uid="{48A29206-EF96-465C-BB48-02F5FE5D7B15}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="792" firstSheet="34" activeTab="34" xr2:uid="{48A29206-EF96-465C-BB48-02F5FE5D7B15}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="1" r:id="rId1"/>
@@ -29,13 +29,13 @@
     <sheet name="HR_Commendation" sheetId="16" r:id="rId14"/>
     <sheet name="HR_ContractType" sheetId="15" r:id="rId15"/>
     <sheet name="HR_Discipline" sheetId="13" r:id="rId16"/>
-    <sheet name="HR_Education" sheetId="14" r:id="rId17"/>
-    <sheet name="HR_EmployeeInfo" sheetId="51" r:id="rId18"/>
-    <sheet name="HR_EmployeeRelationship" sheetId="55" r:id="rId19"/>
-    <sheet name="HR_EmployeeEducation" sheetId="53" r:id="rId20"/>
-    <sheet name="HR_Education (6)" sheetId="54" r:id="rId21"/>
-    <sheet name="HR_Education (4)" sheetId="52" r:id="rId22"/>
-    <sheet name="HR_Education (2)" sheetId="50" r:id="rId23"/>
+    <sheet name="HR_Employee-TODO" sheetId="56" r:id="rId17"/>
+    <sheet name="HR_Education" sheetId="14" r:id="rId18"/>
+    <sheet name="HR_EmployeeEducation" sheetId="53" r:id="rId19"/>
+    <sheet name="HR_EmployeeIdentification" sheetId="54" r:id="rId20"/>
+    <sheet name="HR_EmployeeInfo" sheetId="51" r:id="rId21"/>
+    <sheet name="HR_EmployeeRelationship" sheetId="55" r:id="rId22"/>
+    <sheet name="HR_EmployeeWorkingStatus-TODO" sheetId="52" r:id="rId23"/>
     <sheet name="HR_Ethnicity" sheetId="25" r:id="rId24"/>
     <sheet name="HR_IdentificationType" sheetId="24" r:id="rId25"/>
     <sheet name="HR_ModelOfStudy" sheetId="22" r:id="rId26"/>
@@ -44,25 +44,26 @@
     <sheet name="HR_Ranking" sheetId="21" r:id="rId29"/>
     <sheet name="HR_RelationshipType" sheetId="20" r:id="rId30"/>
     <sheet name="HR_Religion" sheetId="19" r:id="rId31"/>
-    <sheet name="New (2)" sheetId="26" r:id="rId32"/>
-    <sheet name="New (3)" sheetId="27" r:id="rId33"/>
-    <sheet name="New (4)" sheetId="28" r:id="rId34"/>
-    <sheet name="New (5)" sheetId="29" r:id="rId35"/>
-    <sheet name="New (6)" sheetId="30" r:id="rId36"/>
-    <sheet name="New (7)" sheetId="31" r:id="rId37"/>
-    <sheet name="New (8)" sheetId="32" r:id="rId38"/>
-    <sheet name="New (9)" sheetId="33" r:id="rId39"/>
-    <sheet name="Security_Function" sheetId="34" r:id="rId40"/>
-    <sheet name="Security_FunctionCommand" sheetId="35" r:id="rId41"/>
-    <sheet name="Security_Module" sheetId="36" r:id="rId42"/>
-    <sheet name="Security_Role" sheetId="37" r:id="rId43"/>
-    <sheet name="Security_RoleDetail" sheetId="38" r:id="rId44"/>
-    <sheet name="Security_SessionLog " sheetId="39" r:id="rId45"/>
-    <sheet name="Security_User" sheetId="40" r:id="rId46"/>
-    <sheet name="Security_UserModule" sheetId="41" r:id="rId47"/>
-    <sheet name="Security_UserRole" sheetId="42" r:id="rId48"/>
-    <sheet name="Secutiry_SystemLog" sheetId="43" r:id="rId49"/>
-    <sheet name="Sample" sheetId="44" r:id="rId50"/>
+    <sheet name="HR_Education (2)" sheetId="50" r:id="rId32"/>
+    <sheet name="New (2)" sheetId="26" r:id="rId33"/>
+    <sheet name="New (3)" sheetId="27" r:id="rId34"/>
+    <sheet name="New (4)" sheetId="28" r:id="rId35"/>
+    <sheet name="New (5)" sheetId="29" r:id="rId36"/>
+    <sheet name="New (6)" sheetId="30" r:id="rId37"/>
+    <sheet name="New (7)" sheetId="31" r:id="rId38"/>
+    <sheet name="New (8)" sheetId="32" r:id="rId39"/>
+    <sheet name="New (9)" sheetId="33" r:id="rId40"/>
+    <sheet name="Security_Function" sheetId="34" r:id="rId41"/>
+    <sheet name="Security_FunctionCommand" sheetId="35" r:id="rId42"/>
+    <sheet name="Security_Module" sheetId="36" r:id="rId43"/>
+    <sheet name="Security_Role" sheetId="37" r:id="rId44"/>
+    <sheet name="Security_RoleDetail" sheetId="38" r:id="rId45"/>
+    <sheet name="Security_SessionLog -TODO" sheetId="39" r:id="rId46"/>
+    <sheet name="Security_User" sheetId="40" r:id="rId47"/>
+    <sheet name="Security_UserModule- TODO" sheetId="41" r:id="rId48"/>
+    <sheet name="Security_UserRole" sheetId="42" r:id="rId49"/>
+    <sheet name="Secutiry_SystemLog" sheetId="43" r:id="rId50"/>
+    <sheet name="Sample" sheetId="44" r:id="rId51"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -74,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2682" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2763" uniqueCount="291">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -959,6 +960,33 @@
   </si>
   <si>
     <t>Add more description</t>
+  </si>
+  <si>
+    <t>Document code, It's a unique value</t>
+  </si>
+  <si>
+    <t>PlaceId</t>
+  </si>
+  <si>
+    <t>Linked to Common_Province table. Where to issued this identification</t>
+  </si>
+  <si>
+    <t>IdentificationTypeId</t>
+  </si>
+  <si>
+    <t>Linked to Common_IdentificationType table. Type of identificate</t>
+  </si>
+  <si>
+    <t>Common_IdentificationType</t>
+  </si>
+  <si>
+    <t>Expiration date</t>
+  </si>
+  <si>
+    <t>Linked to Security_User table. User Id</t>
+  </si>
+  <si>
+    <t>Module code</t>
   </si>
 </sst>
 </file>
@@ -1108,7 +1136,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1167,6 +1195,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1221,9 +1254,31 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1552,22 +1607,22 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:7" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
     </row>
     <row r="5" spans="2:7" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D11" s="1" t="s">
@@ -1646,14 +1701,14 @@
       <c r="B1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="31" t="str">
+      <c r="C1" s="34" t="str">
         <f>'Cover Sheet'!B3</f>
         <v>ERP APPLICATION</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="33"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="36"/>
       <c r="H1" s="9" t="s">
         <v>18</v>
       </c>
@@ -1666,13 +1721,13 @@
       <c r="B2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="34" t="s">
         <v>221</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="33"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="36"/>
       <c r="H2" s="9" t="s">
         <v>5</v>
       </c>
@@ -1685,15 +1740,15 @@
       <c r="B3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="37" t="s">
         <v>222</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
@@ -1974,14 +2029,14 @@
       <c r="B1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="31" t="str">
+      <c r="C1" s="34" t="str">
         <f>'Cover Sheet'!B3</f>
         <v>ERP APPLICATION</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="33"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="36"/>
       <c r="H1" s="9" t="s">
         <v>18</v>
       </c>
@@ -1994,13 +2049,13 @@
       <c r="B2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="33"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="36"/>
       <c r="H2" s="9" t="s">
         <v>5</v>
       </c>
@@ -2013,15 +2068,15 @@
       <c r="B3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
@@ -2340,14 +2395,14 @@
       <c r="B1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="36" t="str">
+      <c r="C1" s="39" t="str">
         <f>'Cover Sheet'!B3</f>
         <v>ERP APPLICATION</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="38"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="41"/>
       <c r="H1" s="5" t="s">
         <v>18</v>
       </c>
@@ -2360,13 +2415,13 @@
       <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="41"/>
       <c r="H2" s="5" t="s">
         <v>5</v>
       </c>
@@ -2379,15 +2434,15 @@
       <c r="B3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
@@ -2685,14 +2740,14 @@
       <c r="B1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="36" t="str">
+      <c r="C1" s="39" t="str">
         <f>'Cover Sheet'!B3</f>
         <v>ERP APPLICATION</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="38"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="41"/>
       <c r="H1" s="5" t="s">
         <v>18</v>
       </c>
@@ -2705,13 +2760,13 @@
       <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="41"/>
       <c r="H2" s="5" t="s">
         <v>5</v>
       </c>
@@ -2724,15 +2779,15 @@
       <c r="B3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="38" t="s">
         <v>226</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
@@ -3030,14 +3085,14 @@
       <c r="B1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="36" t="str">
+      <c r="C1" s="39" t="str">
         <f>'Cover Sheet'!B3</f>
         <v>ERP APPLICATION</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="38"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="41"/>
       <c r="H1" s="5" t="s">
         <v>18</v>
       </c>
@@ -3050,13 +3105,13 @@
       <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="41"/>
       <c r="H2" s="5" t="s">
         <v>5</v>
       </c>
@@ -3069,15 +3124,15 @@
       <c r="B3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
@@ -3546,14 +3601,14 @@
       <c r="B1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="31" t="str">
+      <c r="C1" s="34" t="str">
         <f>'Cover Sheet'!B3</f>
         <v>ERP APPLICATION</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="33"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="36"/>
       <c r="H1" s="9" t="s">
         <v>18</v>
       </c>
@@ -3566,13 +3621,13 @@
       <c r="B2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="33"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="36"/>
       <c r="H2" s="9" t="s">
         <v>5</v>
       </c>
@@ -3585,15 +3640,15 @@
       <c r="B3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
@@ -3953,14 +4008,14 @@
       <c r="B1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="31" t="str">
+      <c r="C1" s="34" t="str">
         <f>'Cover Sheet'!B3</f>
         <v>ERP APPLICATION</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="33"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="36"/>
       <c r="H1" s="9" t="s">
         <v>18</v>
       </c>
@@ -3973,13 +4028,13 @@
       <c r="B2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="33"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="36"/>
       <c r="H2" s="9" t="s">
         <v>5</v>
       </c>
@@ -3992,15 +4047,15 @@
       <c r="B3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
@@ -4272,6 +4327,504 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B001C81-9D23-417E-8810-9B9028EA329B}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="B1:J32"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" customWidth="1"/>
+    <col min="9" max="9" width="19" customWidth="1"/>
+    <col min="10" max="10" width="42.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="39" t="str">
+        <f>'Cover Sheet'!B3</f>
+        <v>ERP APPLICATION</v>
+      </c>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="5" t="str">
+        <f>LOOKUP(2,1/(Summary!C13:C600&lt;&gt; ""),Summary!C13:C600 )</f>
+        <v>1.0.2</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="5" t="str">
+        <f>LOOKUP(2,1/(Summary!D13:D600&lt;&gt; ""),Summary!D13:D600 )</f>
+        <v>Anthony</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="12">
+        <v>100</v>
+      </c>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="13">
+        <v>1</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B16" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="13"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:I3"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C33" xr:uid="{0866E10F-6805-4579-B9D1-B50FFF5FBAFF}">
+      <formula1>"uniqueidentifier,bit,varchar,nvarchar,byte,int,smallint,float,decimal,datetime,timestamp"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D32" xr:uid="{96F10C61-34D8-4E39-B214-96C426CC5979}">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7FDC936-B6E7-4E33-A7EE-BD0F802CE1D7}">
   <dimension ref="B1:J32"/>
   <sheetViews>
@@ -4297,14 +4850,14 @@
       <c r="B1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="36" t="str">
+      <c r="C1" s="39" t="str">
         <f>'Cover Sheet'!B3</f>
         <v>ERP APPLICATION</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="38"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="41"/>
       <c r="H1" s="5" t="s">
         <v>18</v>
       </c>
@@ -4317,13 +4870,13 @@
       <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="41"/>
       <c r="H2" s="5" t="s">
         <v>5</v>
       </c>
@@ -4336,15 +4889,15 @@
       <c r="B3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="38" t="s">
         <v>137</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
@@ -4766,18 +5319,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FDCB8EA-F2FB-4C2F-A23C-F6DCED5F9998}">
-  <dimension ref="B1:J31"/>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C0BF8E7-2D77-4738-84CB-99AE8A0C2CA4}">
+  <dimension ref="B1:J32"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:J8"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
     <col min="3" max="3" width="17.140625" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" customWidth="1"/>
     <col min="5" max="5" width="16.85546875" customWidth="1"/>
@@ -4792,14 +5345,14 @@
       <c r="B1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="36" t="str">
+      <c r="C1" s="39" t="str">
         <f>'Cover Sheet'!B3</f>
         <v>ERP APPLICATION</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="38"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="41"/>
       <c r="H1" s="5" t="s">
         <v>18</v>
       </c>
@@ -4812,13 +5365,13 @@
       <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="36" t="s">
-        <v>231</v>
-      </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
+      <c r="C2" s="39" t="s">
+        <v>267</v>
+      </c>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="41"/>
       <c r="H2" s="5" t="s">
         <v>5</v>
       </c>
@@ -4831,15 +5384,15 @@
       <c r="B3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
+      <c r="C3" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
@@ -4875,7 +5428,7 @@
         <v>24</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>26</v>
@@ -4889,7 +5442,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="16" t="s">
         <v>186</v>
       </c>
@@ -4899,371 +5452,341 @@
       <c r="D8" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6" t="s">
+      <c r="E8" s="13"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J8" s="12" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="12" t="s">
+      <c r="B9" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>26</v>
       </c>
       <c r="E9" s="8"/>
-      <c r="F9" s="6">
-        <v>50</v>
-      </c>
+      <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
+      <c r="I9" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>26</v>
       </c>
       <c r="E10" s="8"/>
-      <c r="F10" s="6">
-        <v>50</v>
-      </c>
+      <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
+      <c r="J10" s="6" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="6"/>
+      <c r="B11" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="E11" s="8"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
+      <c r="I11" s="6" t="s">
+        <v>279</v>
+      </c>
       <c r="J11" s="6" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="6" t="s">
-        <v>238</v>
+      <c r="B12" s="23" t="s">
+        <v>272</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="E12" s="8"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
+      <c r="I12" s="6" t="s">
+        <v>122</v>
+      </c>
       <c r="J12" s="6" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="41" t="s">
-        <v>239</v>
-      </c>
-      <c r="C13" s="12" t="s">
+      <c r="B13" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="6"/>
+      <c r="D13" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="E13" s="8"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6" t="s">
-        <v>249</v>
+        <v>129</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="41" t="s">
-        <v>240</v>
+        <v>278</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="41" t="s">
-        <v>241</v>
+      <c r="D14" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="13">
+        <v>1</v>
+      </c>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="12" t="s">
+        <v>29</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="41" t="s">
-        <v>242</v>
+        <v>30</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="41" t="s">
-        <v>243</v>
+      <c r="D16" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="13"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="41" t="s">
-        <v>244</v>
+        <v>33</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="12" t="s">
+        <v>36</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="40" t="s">
-        <v>245</v>
-      </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="12"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="20" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="13">
-        <v>1</v>
+      <c r="E20" s="13" t="b">
+        <v>0</v>
       </c>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D21" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="13" t="b">
-        <v>1</v>
-      </c>
+      <c r="E21" s="13"/>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
-      <c r="J21" s="12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="13"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B27" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E27" s="13"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="15" t="s">
+      <c r="J21" s="15" t="s">
         <v>58</v>
       </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="6"/>
@@ -5309,6 +5832,17 @@
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
     </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="C1:G1"/>
@@ -5316,546 +5850,10 @@
     <mergeCell ref="C3:I3"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C32" xr:uid="{C483EA46-EBB2-4909-BE37-1A106B11BD6F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C33" xr:uid="{3DB6211E-99E1-4293-9B47-7CE0DA97DE17}">
       <formula1>"uniqueidentifier,bit,varchar,nvarchar,byte,int,smallint,float,decimal,datetime,timestamp"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D31" xr:uid="{FF48CB86-8AE5-4971-A034-CC5D54C9EC90}">
-      <formula1>"Yes,No"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AA0AEA9-9BE5-4ADB-867D-D3B43F7C547F}">
-  <dimension ref="B1:J32"/>
-  <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4" style="10" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="10" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" style="10" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="10" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" style="10" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" style="10" customWidth="1"/>
-    <col min="9" max="9" width="19" style="10" customWidth="1"/>
-    <col min="10" max="10" width="42.7109375" style="10" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="10"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B1" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="31" t="str">
-        <f>'Cover Sheet'!B3</f>
-        <v>ERP APPLICATION</v>
-      </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="9" t="str">
-        <f>LOOKUP(2,1/(Summary!C13:C600&lt;&gt; ""),Summary!C13:C600 )</f>
-        <v>1.0.2</v>
-      </c>
-    </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="31" t="s">
-        <v>257</v>
-      </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="9" t="str">
-        <f>LOOKUP(2,1/(Summary!D13:D600&lt;&gt; ""),Summary!D13:D600 )</f>
-        <v>Anthony</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>258</v>
-      </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="33"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="12">
-        <v>100</v>
-      </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="15" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="42" t="s">
-        <v>260</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="12">
-        <v>255</v>
-      </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="12">
-        <v>15</v>
-      </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="13">
-        <v>1</v>
-      </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B20" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:I3"/>
-  </mergeCells>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C33" xr:uid="{52699735-5869-4329-B00F-820547284223}">
-      <formula1>"uniqueidentifier,bit,varchar,nvarchar,byte,int,smallint,float,decimal,datetime,timestamp"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D32" xr:uid="{FDEDABEB-238D-4914-937D-5AB830518438}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D32" xr:uid="{B7779B76-FC16-4FD8-AE34-6865146E7578}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5884,28 +5882,28 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:9" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
     </row>
     <row r="5" spans="2:9" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G7" s="1" t="s">
@@ -5926,16 +5924,16 @@
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
@@ -5947,13 +5945,13 @@
       <c r="D12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="E12" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="30"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="33"/>
     </row>
     <row r="13" spans="2:9" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="4">
@@ -5965,13 +5963,13 @@
       <c r="D13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="25" t="s">
+      <c r="E13" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="27"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="30"/>
     </row>
     <row r="14" spans="2:9" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="4">
@@ -5983,13 +5981,13 @@
       <c r="D14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="E14" s="28" t="s">
         <v>211</v>
       </c>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="27"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="30"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="4">
@@ -6001,43 +5999,43 @@
       <c r="D15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="28" t="s">
         <v>281</v>
       </c>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="27"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="30"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="27"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="30"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="27"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="30"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="27"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="30"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E19" s="17"/>
@@ -6128,11 +6126,1669 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C0BF8E7-2D77-4738-84CB-99AE8A0C2CA4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC02890-4A9B-42B5-A656-0D67A80461B3}">
+  <dimension ref="B1:J36"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4" style="18" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="18" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" style="18" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" style="18" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="18" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" style="18" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" style="18" customWidth="1"/>
+    <col min="9" max="9" width="30.85546875" style="18" customWidth="1"/>
+    <col min="10" max="10" width="42.7109375" style="18" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="47" t="str">
+        <f>'Cover Sheet'!B3</f>
+        <v>ERP APPLICATION</v>
+      </c>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="46" t="str">
+        <f>LOOKUP(2,1/(Summary!C13:C600&lt;&gt; ""),Summary!C13:C600 )</f>
+        <v>1.0.2</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="46" t="str">
+        <f>LOOKUP(2,1/(Summary!D13:D600&lt;&gt; ""),Summary!D13:D600 )</f>
+        <v>Anthony</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="44"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="45" t="s">
+        <v>186</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="44"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="44"/>
+      <c r="F9" s="15">
+        <v>20</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="45" t="s">
+        <v>283</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="44"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="45" t="s">
+        <v>285</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="44"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="15">
+        <v>255</v>
+      </c>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="44"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="44"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="15"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B20" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="44"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:I3"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D36" xr:uid="{085F1C76-838E-4A71-AD32-4DB2BA30D054}">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C37" xr:uid="{1F81AF05-E36C-409F-9DC1-DE9CB33C71A9}">
+      <formula1>"uniqueidentifier,bit,varchar,nvarchar,byte,int,smallint,float,decimal,datetime,timestamp"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FDCB8EA-F2FB-4C2F-A23C-F6DCED5F9998}">
   <dimension ref="B1:J31"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="B7" sqref="B7:J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" customWidth="1"/>
+    <col min="9" max="9" width="19" customWidth="1"/>
+    <col min="10" max="10" width="42.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="39" t="str">
+        <f>'Cover Sheet'!B3</f>
+        <v>ERP APPLICATION</v>
+      </c>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="5" t="str">
+        <f>LOOKUP(2,1/(Summary!C13:C600&lt;&gt; ""),Summary!C13:C600 )</f>
+        <v>1.0.2</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="5" t="str">
+        <f>LOOKUP(2,1/(Summary!D13:D600&lt;&gt; ""),Summary!D13:D600 )</f>
+        <v>Anthony</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>232</v>
+      </c>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="6">
+        <v>50</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="6">
+        <v>50</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+    </row>
+    <row r="20" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="13">
+        <v>1</v>
+      </c>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="13"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="12"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="12"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B27" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="13"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:I3"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C32" xr:uid="{C483EA46-EBB2-4909-BE37-1A106B11BD6F}">
+      <formula1>"uniqueidentifier,bit,varchar,nvarchar,byte,int,smallint,float,decimal,datetime,timestamp"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D31" xr:uid="{FF48CB86-8AE5-4971-A034-CC5D54C9EC90}">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AA0AEA9-9BE5-4ADB-867D-D3B43F7C547F}">
+  <dimension ref="B1:J31"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4" style="10" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" style="10" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="10" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" style="10" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" style="10" customWidth="1"/>
+    <col min="9" max="9" width="19" style="10" customWidth="1"/>
+    <col min="10" max="10" width="42.7109375" style="10" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="34" t="str">
+        <f>'Cover Sheet'!B3</f>
+        <v>ERP APPLICATION</v>
+      </c>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="9" t="str">
+        <f>LOOKUP(2,1/(Summary!C13:C600&lt;&gt; ""),Summary!C13:C600 )</f>
+        <v>1.0.2</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>257</v>
+      </c>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="9" t="str">
+        <f>LOOKUP(2,1/(Summary!D13:D600&lt;&gt; ""),Summary!D13:D600 )</f>
+        <v>Anthony</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>258</v>
+      </c>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="36"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="12">
+        <v>100</v>
+      </c>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="15" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="24" t="s">
+        <v>260</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="12">
+        <v>255</v>
+      </c>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="12">
+        <v>15</v>
+      </c>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B19" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="13"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:I3"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C32" xr:uid="{52699735-5869-4329-B00F-820547284223}">
+      <formula1>"uniqueidentifier,bit,varchar,nvarchar,byte,int,smallint,float,decimal,datetime,timestamp"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D31" xr:uid="{FDEDABEB-238D-4914-937D-5AB830518438}">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FD0A47F-F145-4B40-B6E4-5C5E1CA1F2CF}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="B1:J32"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6153,14 +7809,14 @@
       <c r="B1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="36" t="str">
+      <c r="C1" s="39" t="str">
         <f>'Cover Sheet'!B3</f>
         <v>ERP APPLICATION</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="38"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="41"/>
       <c r="H1" s="5" t="s">
         <v>18</v>
       </c>
@@ -6173,13 +7829,13 @@
       <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="36" t="s">
-        <v>267</v>
-      </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
+      <c r="C2" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="41"/>
       <c r="H2" s="5" t="s">
         <v>5</v>
       </c>
@@ -6192,1032 +7848,15 @@
       <c r="B3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="35" t="s">
-        <v>268</v>
-      </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="41" t="s">
-        <v>269</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="41" t="s">
-        <v>271</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="41" t="s">
-        <v>272</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="41" t="s">
-        <v>273</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="13">
-        <v>1</v>
-      </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B20" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:I3"/>
-  </mergeCells>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C32" xr:uid="{3DB6211E-99E1-4293-9B47-7CE0DA97DE17}">
-      <formula1>"uniqueidentifier,bit,varchar,nvarchar,byte,int,smallint,float,decimal,datetime,timestamp"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D31" xr:uid="{B7779B76-FC16-4FD8-AE34-6865146E7578}">
-      <formula1>"Yes,No"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC02890-4A9B-42B5-A656-0D67A80461B3}">
-  <dimension ref="B1:J32"/>
-  <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:I3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" customWidth="1"/>
-    <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="42.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="36" t="str">
-        <f>'Cover Sheet'!B3</f>
-        <v>ERP APPLICATION</v>
-      </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="5" t="str">
-        <f>LOOKUP(2,1/(Summary!C13:C600&lt;&gt; ""),Summary!C13:C600 )</f>
-        <v>1.0.2</v>
-      </c>
-    </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="5" t="str">
-        <f>LOOKUP(2,1/(Summary!D13:D600&lt;&gt; ""),Summary!D13:D600 )</f>
-        <v>Anthony</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="38" t="s">
         <v>137</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="12">
-        <v>100</v>
-      </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="15" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="13">
-        <v>1</v>
-      </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B16" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:I3"/>
-  </mergeCells>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D32" xr:uid="{085F1C76-838E-4A71-AD32-4DB2BA30D054}">
-      <formula1>"Yes,No"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C33" xr:uid="{1F81AF05-E36C-409F-9DC1-DE9CB33C71A9}">
-      <formula1>"uniqueidentifier,bit,varchar,nvarchar,byte,int,smallint,float,decimal,datetime,timestamp"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FD0A47F-F145-4B40-B6E4-5C5E1CA1F2CF}">
-  <dimension ref="B1:J32"/>
-  <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:I3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" customWidth="1"/>
-    <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="42.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="36" t="str">
-        <f>'Cover Sheet'!B3</f>
-        <v>ERP APPLICATION</v>
-      </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="5" t="str">
-        <f>LOOKUP(2,1/(Summary!C13:C600&lt;&gt; ""),Summary!C13:C600 )</f>
-        <v>1.0.2</v>
-      </c>
-    </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="5" t="str">
-        <f>LOOKUP(2,1/(Summary!D13:D600&lt;&gt; ""),Summary!D13:D600 )</f>
-        <v>Anthony</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
@@ -7631,501 +8270,6 @@
       <formula1>"Yes,No"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C33" xr:uid="{7E5A8A5D-B3A2-4811-BEF7-0D00DB07D73C}">
-      <formula1>"uniqueidentifier,bit,varchar,nvarchar,byte,int,smallint,float,decimal,datetime,timestamp"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A34FB98A-AED7-42D9-80FE-95919C58BA1F}">
-  <dimension ref="B1:J32"/>
-  <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:I3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" customWidth="1"/>
-    <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="42.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="36" t="str">
-        <f>'Cover Sheet'!B3</f>
-        <v>ERP APPLICATION</v>
-      </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="5" t="str">
-        <f>LOOKUP(2,1/(Summary!C13:C600&lt;&gt; ""),Summary!C13:C600 )</f>
-        <v>1.0.2</v>
-      </c>
-    </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="5" t="str">
-        <f>LOOKUP(2,1/(Summary!D13:D600&lt;&gt; ""),Summary!D13:D600 )</f>
-        <v>Anthony</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="12">
-        <v>100</v>
-      </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="15" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="13">
-        <v>1</v>
-      </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B16" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:I3"/>
-  </mergeCells>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D32" xr:uid="{151144B5-EEC5-4483-A231-EAFAA6003964}">
-      <formula1>"Yes,No"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C33" xr:uid="{AE61FD02-CD65-487B-9ED5-E1E294594C7C}">
       <formula1>"uniqueidentifier,bit,varchar,nvarchar,byte,int,smallint,float,decimal,datetime,timestamp"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8160,14 +8304,14 @@
       <c r="B1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="36" t="str">
+      <c r="C1" s="39" t="str">
         <f>'Cover Sheet'!B3</f>
         <v>ERP APPLICATION</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="38"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="41"/>
       <c r="H1" s="5" t="s">
         <v>18</v>
       </c>
@@ -8180,13 +8324,13 @@
       <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="41"/>
       <c r="H2" s="5" t="s">
         <v>5</v>
       </c>
@@ -8199,15 +8343,15 @@
       <c r="B3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
@@ -8484,14 +8628,14 @@
       <c r="B1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="36" t="str">
+      <c r="C1" s="39" t="str">
         <f>'Cover Sheet'!B3</f>
         <v>ERP APPLICATION</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="38"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="41"/>
       <c r="H1" s="5" t="s">
         <v>18</v>
       </c>
@@ -8504,13 +8648,13 @@
       <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="41"/>
       <c r="H2" s="5" t="s">
         <v>5</v>
       </c>
@@ -8523,15 +8667,15 @@
       <c r="B3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
@@ -8808,14 +8952,14 @@
       <c r="B1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="36" t="str">
+      <c r="C1" s="39" t="str">
         <f>'Cover Sheet'!B3</f>
         <v>ERP APPLICATION</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="38"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="41"/>
       <c r="H1" s="5" t="s">
         <v>18</v>
       </c>
@@ -8828,13 +8972,13 @@
       <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="41"/>
       <c r="H2" s="5" t="s">
         <v>5</v>
       </c>
@@ -8847,15 +8991,15 @@
       <c r="B3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
@@ -9132,14 +9276,14 @@
       <c r="B1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="36" t="str">
+      <c r="C1" s="39" t="str">
         <f>'Cover Sheet'!B3</f>
         <v>ERP APPLICATION</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="38"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="41"/>
       <c r="H1" s="5" t="s">
         <v>18</v>
       </c>
@@ -9152,13 +9296,13 @@
       <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="41"/>
       <c r="H2" s="5" t="s">
         <v>5</v>
       </c>
@@ -9171,15 +9315,15 @@
       <c r="B3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
@@ -9456,14 +9600,14 @@
       <c r="B1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="36" t="str">
+      <c r="C1" s="39" t="str">
         <f>'Cover Sheet'!B3</f>
         <v>ERP APPLICATION</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="38"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="41"/>
       <c r="H1" s="5" t="s">
         <v>18</v>
       </c>
@@ -9476,13 +9620,13 @@
       <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="41"/>
       <c r="H2" s="5" t="s">
         <v>5</v>
       </c>
@@ -9495,15 +9639,15 @@
       <c r="B3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
@@ -9799,14 +9943,14 @@
       <c r="B1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="36" t="str">
+      <c r="C1" s="39" t="str">
         <f>'Cover Sheet'!B3</f>
         <v>ERP APPLICATION</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="38"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="41"/>
       <c r="H1" s="5" t="s">
         <v>18</v>
       </c>
@@ -9819,13 +9963,13 @@
       <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="41"/>
       <c r="H2" s="5" t="s">
         <v>5</v>
       </c>
@@ -9838,15 +9982,15 @@
       <c r="B3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
@@ -10104,7 +10248,7 @@
   </sheetPr>
   <dimension ref="B1:J17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
@@ -10127,14 +10271,14 @@
       <c r="B1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="31" t="str">
+      <c r="C1" s="34" t="str">
         <f>'Cover Sheet'!B3</f>
         <v>ERP APPLICATION</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="33"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="36"/>
       <c r="H1" s="9" t="s">
         <v>18</v>
       </c>
@@ -10147,13 +10291,13 @@
       <c r="B2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="34" t="s">
         <v>212</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="33"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="36"/>
       <c r="H2" s="9" t="s">
         <v>5</v>
       </c>
@@ -10166,15 +10310,15 @@
       <c r="B3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="37" t="s">
         <v>213</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
@@ -10451,14 +10595,14 @@
       <c r="B1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="36" t="str">
+      <c r="C1" s="39" t="str">
         <f>'Cover Sheet'!B3</f>
         <v>ERP APPLICATION</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="38"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="41"/>
       <c r="H1" s="5" t="s">
         <v>18</v>
       </c>
@@ -10471,13 +10615,13 @@
       <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="41"/>
       <c r="H2" s="5" t="s">
         <v>5</v>
       </c>
@@ -10490,15 +10634,15 @@
       <c r="B3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
@@ -10794,14 +10938,14 @@
       <c r="B1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="36" t="str">
+      <c r="C1" s="39" t="str">
         <f>'Cover Sheet'!B3</f>
         <v>ERP APPLICATION</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="38"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="41"/>
       <c r="H1" s="5" t="s">
         <v>18</v>
       </c>
@@ -10814,13 +10958,13 @@
       <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="41"/>
       <c r="H2" s="5" t="s">
         <v>5</v>
       </c>
@@ -10833,15 +10977,15 @@
       <c r="B3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
@@ -11093,6 +11237,504 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A34FB98A-AED7-42D9-80FE-95919C58BA1F}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="B1:J32"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" customWidth="1"/>
+    <col min="9" max="9" width="19" customWidth="1"/>
+    <col min="10" max="10" width="42.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="39" t="str">
+        <f>'Cover Sheet'!B3</f>
+        <v>ERP APPLICATION</v>
+      </c>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="5" t="str">
+        <f>LOOKUP(2,1/(Summary!C13:C600&lt;&gt; ""),Summary!C13:C600 )</f>
+        <v>1.0.2</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="5" t="str">
+        <f>LOOKUP(2,1/(Summary!D13:D600&lt;&gt; ""),Summary!D13:D600 )</f>
+        <v>Anthony</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="12">
+        <v>100</v>
+      </c>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="13">
+        <v>1</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B16" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="13"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:I3"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D32" xr:uid="{151144B5-EEC5-4483-A231-EAFAA6003964}">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C33" xr:uid="{AE61FD02-CD65-487B-9ED5-E1E294594C7C}">
+      <formula1>"uniqueidentifier,bit,varchar,nvarchar,byte,int,smallint,float,decimal,datetime,timestamp"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACCA57C4-3AB5-4699-82BC-282C180CDD22}">
   <dimension ref="B1:J20"/>
   <sheetViews>
@@ -11118,14 +11760,14 @@
       <c r="B1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="36" t="str">
+      <c r="C1" s="39" t="str">
         <f>'Cover Sheet'!B3</f>
         <v>ERP APPLICATION</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="38"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="41"/>
       <c r="H1" s="5" t="s">
         <v>18</v>
       </c>
@@ -11138,11 +11780,11 @@
       <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="41"/>
       <c r="H2" s="5" t="s">
         <v>5</v>
       </c>
@@ -11155,15 +11797,15 @@
       <c r="B3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
@@ -11426,7 +12068,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ECF0A66-37D2-45E4-990D-FE442AC48A82}">
   <dimension ref="B1:J20"/>
   <sheetViews>
@@ -11452,14 +12094,14 @@
       <c r="B1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="36" t="str">
+      <c r="C1" s="39" t="str">
         <f>'Cover Sheet'!B3</f>
         <v>ERP APPLICATION</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="38"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="41"/>
       <c r="H1" s="5" t="s">
         <v>18</v>
       </c>
@@ -11472,11 +12114,11 @@
       <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="41"/>
       <c r="H2" s="5" t="s">
         <v>5</v>
       </c>
@@ -11489,15 +12131,15 @@
       <c r="B3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
@@ -11760,12 +12402,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A43E6687-33C2-4830-BFD6-1E726002E02E}">
   <dimension ref="B1:J20"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11786,14 +12428,14 @@
       <c r="B1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="36" t="str">
+      <c r="C1" s="39" t="str">
         <f>'Cover Sheet'!B3</f>
         <v>ERP APPLICATION</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="38"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="41"/>
       <c r="H1" s="5" t="s">
         <v>18</v>
       </c>
@@ -11806,11 +12448,11 @@
       <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="41"/>
       <c r="H2" s="5" t="s">
         <v>5</v>
       </c>
@@ -11823,15 +12465,15 @@
       <c r="B3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
@@ -12094,7 +12736,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D68ABB-3ECB-4B41-907A-709E2E0D6008}">
   <dimension ref="B1:J20"/>
   <sheetViews>
@@ -12120,14 +12762,14 @@
       <c r="B1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="36" t="str">
+      <c r="C1" s="39" t="str">
         <f>'Cover Sheet'!B3</f>
         <v>ERP APPLICATION</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="38"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="41"/>
       <c r="H1" s="5" t="s">
         <v>18</v>
       </c>
@@ -12140,11 +12782,11 @@
       <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="41"/>
       <c r="H2" s="5" t="s">
         <v>5</v>
       </c>
@@ -12157,15 +12799,15 @@
       <c r="B3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
@@ -12428,7 +13070,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E637DB4A-B836-4C55-8E98-39F01AC8E043}">
   <dimension ref="B1:J20"/>
   <sheetViews>
@@ -12454,14 +13096,14 @@
       <c r="B1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="36" t="str">
+      <c r="C1" s="39" t="str">
         <f>'Cover Sheet'!B3</f>
         <v>ERP APPLICATION</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="38"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="41"/>
       <c r="H1" s="5" t="s">
         <v>18</v>
       </c>
@@ -12474,11 +13116,11 @@
       <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="41"/>
       <c r="H2" s="5" t="s">
         <v>5</v>
       </c>
@@ -12491,15 +13133,15 @@
       <c r="B3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
@@ -12762,7 +13404,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D788232-A904-4FBB-A9C8-047BA2466D65}">
   <dimension ref="B1:J20"/>
   <sheetViews>
@@ -12788,14 +13430,14 @@
       <c r="B1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="36" t="str">
+      <c r="C1" s="39" t="str">
         <f>'Cover Sheet'!B3</f>
         <v>ERP APPLICATION</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="38"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="41"/>
       <c r="H1" s="5" t="s">
         <v>18</v>
       </c>
@@ -12808,11 +13450,11 @@
       <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="41"/>
       <c r="H2" s="5" t="s">
         <v>5</v>
       </c>
@@ -12825,15 +13467,15 @@
       <c r="B3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
@@ -13096,12 +13738,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F3E4BAE-B7E7-4870-91C3-8FA3B4AF8809}">
   <dimension ref="B1:J20"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13122,14 +13764,14 @@
       <c r="B1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="36" t="str">
+      <c r="C1" s="39" t="str">
         <f>'Cover Sheet'!B3</f>
         <v>ERP APPLICATION</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="38"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="41"/>
       <c r="H1" s="5" t="s">
         <v>18</v>
       </c>
@@ -13142,11 +13784,11 @@
       <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="41"/>
       <c r="H2" s="5" t="s">
         <v>5</v>
       </c>
@@ -13159,15 +13801,15 @@
       <c r="B3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
@@ -13423,340 +14065,6 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D18" xr:uid="{6195810C-F9B8-4251-812A-B120463A2DA3}">
       <formula1>"Yes,No"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{881F6ECE-7361-4A60-A6C5-C2FBC58F4055}">
-  <dimension ref="B1:J20"/>
-  <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" customWidth="1"/>
-    <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="42.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="36" t="str">
-        <f>'Cover Sheet'!B3</f>
-        <v>ERP APPLICATION</v>
-      </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="5" t="str">
-        <f>LOOKUP(2,1/(Summary!C13:C600&lt;&gt; ""),Summary!C13:C600 )</f>
-        <v>1.0.2</v>
-      </c>
-    </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="5" t="str">
-        <f>LOOKUP(2,1/(Summary!D13:D600&lt;&gt; ""),Summary!D13:D600 )</f>
-        <v>Anthony</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="14"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="15"/>
-    </row>
-    <row r="9" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="14"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="15"/>
-    </row>
-    <row r="10" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="15"/>
-    </row>
-    <row r="11" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="13">
-        <v>1</v>
-      </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B18" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="20" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:I3"/>
-  </mergeCells>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D18" xr:uid="{836AF434-64BD-4A0F-91B6-1FFC71BABDD8}">
-      <formula1>"Yes,No"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C19" xr:uid="{9A28A571-BD4F-457F-BAD8-BAEB79AD7F41}">
-      <formula1>"uniqueidentifier,bit,varchar,nvarchar,byte,int,smallint,float,decimal,datetime,timestamp"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13793,14 +14101,14 @@
       <c r="B1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="36" t="str">
+      <c r="C1" s="39" t="str">
         <f>'Cover Sheet'!B3</f>
         <v>ERP APPLICATION</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="38"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="41"/>
       <c r="H1" s="5" t="s">
         <v>18</v>
       </c>
@@ -13813,13 +14121,13 @@
       <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="41"/>
       <c r="H2" s="5" t="s">
         <v>5</v>
       </c>
@@ -13832,15 +14140,15 @@
       <c r="B3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
@@ -14113,6 +14421,340 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{881F6ECE-7361-4A60-A6C5-C2FBC58F4055}">
+  <dimension ref="B1:J20"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" customWidth="1"/>
+    <col min="9" max="9" width="19" customWidth="1"/>
+    <col min="10" max="10" width="42.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="39" t="str">
+        <f>'Cover Sheet'!B3</f>
+        <v>ERP APPLICATION</v>
+      </c>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="5" t="str">
+        <f>LOOKUP(2,1/(Summary!C13:C600&lt;&gt; ""),Summary!C13:C600 )</f>
+        <v>1.0.2</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="5" t="str">
+        <f>LOOKUP(2,1/(Summary!D13:D600&lt;&gt; ""),Summary!D13:D600 )</f>
+        <v>Anthony</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="14"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="15"/>
+    </row>
+    <row r="9" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="14"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="15"/>
+    </row>
+    <row r="10" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="15"/>
+    </row>
+    <row r="11" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="13">
+        <v>1</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B18" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="13"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:I3"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D18" xr:uid="{836AF434-64BD-4A0F-91B6-1FFC71BABDD8}">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C19" xr:uid="{9A28A571-BD4F-457F-BAD8-BAEB79AD7F41}">
+      <formula1>"uniqueidentifier,bit,varchar,nvarchar,byte,int,smallint,float,decimal,datetime,timestamp"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87534137-4B9B-41E0-A943-0CDE4EBC5EB6}">
   <sheetPr>
     <tabColor theme="5"/>
@@ -14120,7 +14762,7 @@
   <dimension ref="B1:J16"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14142,14 +14784,14 @@
       <c r="B1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="31" t="str">
+      <c r="C1" s="34" t="str">
         <f>'Cover Sheet'!B3</f>
         <v>ERP APPLICATION</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="33"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="36"/>
       <c r="H1" s="9" t="s">
         <v>18</v>
       </c>
@@ -14162,13 +14804,13 @@
       <c r="B2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="33"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="36"/>
       <c r="H2" s="9" t="s">
         <v>5</v>
       </c>
@@ -14181,15 +14823,15 @@
       <c r="B3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="42" t="s">
         <v>153</v>
       </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
@@ -14406,8 +15048,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{267ACF38-D330-45AE-9A89-14D5EA424A25}">
+  <sheetPr>
+    <tabColor theme="5"/>
+  </sheetPr>
   <dimension ref="B1:J16"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
@@ -14433,14 +15078,14 @@
       <c r="B1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="31" t="str">
+      <c r="C1" s="34" t="str">
         <f>'Cover Sheet'!B3</f>
         <v>ERP APPLICATION</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="33"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="36"/>
       <c r="H1" s="9" t="s">
         <v>18</v>
       </c>
@@ -14453,13 +15098,13 @@
       <c r="B2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="33"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="36"/>
       <c r="H2" s="9" t="s">
         <v>5</v>
       </c>
@@ -14472,15 +15117,15 @@
       <c r="B3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="42" t="s">
         <v>154</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
@@ -14697,8 +15342,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3071A04-EB44-494C-B0CE-595C5AA66A4D}">
+  <sheetPr>
+    <tabColor theme="5"/>
+  </sheetPr>
   <dimension ref="B1:J14"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
@@ -14724,14 +15372,14 @@
       <c r="B1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="31" t="str">
+      <c r="C1" s="34" t="str">
         <f>'Cover Sheet'!B3</f>
         <v>ERP APPLICATION</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="33"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="36"/>
       <c r="H1" s="9" t="s">
         <v>18</v>
       </c>
@@ -14744,13 +15392,13 @@
       <c r="B2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="34" t="s">
         <v>165</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="33"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="36"/>
       <c r="H2" s="9" t="s">
         <v>5</v>
       </c>
@@ -14763,15 +15411,15 @@
       <c r="B3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="42" t="s">
         <v>166</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
@@ -14946,12 +15594,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14209887-1AA3-47C1-B14B-BE62619BDD49}">
+  <sheetPr>
+    <tabColor theme="5"/>
+  </sheetPr>
   <dimension ref="B1:J18"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="B8" sqref="B8:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14972,14 +15623,14 @@
       <c r="B1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="36" t="str">
+      <c r="C1" s="39" t="str">
         <f>'Cover Sheet'!B3</f>
         <v>ERP APPLICATION</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="38"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="41"/>
       <c r="H1" s="5" t="s">
         <v>18</v>
       </c>
@@ -14992,13 +15643,13 @@
       <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="41"/>
       <c r="H2" s="5" t="s">
         <v>5</v>
       </c>
@@ -15011,15 +15662,15 @@
       <c r="B3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
@@ -15070,7 +15721,7 @@
       </c>
     </row>
     <row r="8" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="51" t="s">
         <v>41</v>
       </c>
       <c r="C8" s="12" t="s">
@@ -15091,7 +15742,7 @@
       </c>
     </row>
     <row r="9" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="51" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="12" t="s">
@@ -15268,8 +15919,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96D951AC-26FB-42E6-857C-75471D6B95D2}">
+  <sheetPr>
+    <tabColor theme="5"/>
+  </sheetPr>
   <dimension ref="B1:J11"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
@@ -15294,14 +15948,14 @@
       <c r="B1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="36" t="str">
+      <c r="C1" s="39" t="str">
         <f>'Cover Sheet'!B3</f>
         <v>ERP APPLICATION</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="38"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="41"/>
       <c r="H1" s="5" t="s">
         <v>18</v>
       </c>
@@ -15314,13 +15968,13 @@
       <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="39" t="s">
         <v>175</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="41"/>
       <c r="H2" s="5" t="s">
         <v>5</v>
       </c>
@@ -15333,15 +15987,15 @@
       <c r="B3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
@@ -15461,12 +16115,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DDAEEF1-3948-4B97-A1E8-2E906B226EE2}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="B1:J20"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15487,14 +16144,14 @@
       <c r="B1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="36" t="str">
+      <c r="C1" s="39" t="str">
         <f>'Cover Sheet'!B3</f>
         <v>ERP APPLICATION</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="38"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="41"/>
       <c r="H1" s="5" t="s">
         <v>18</v>
       </c>
@@ -15507,13 +16164,13 @@
       <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="41"/>
       <c r="H2" s="5" t="s">
         <v>5</v>
       </c>
@@ -15526,15 +16183,15 @@
       <c r="B3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
@@ -15797,8 +16454,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA7509AD-1886-4EF6-BA43-6D9AE5FAC1B6}">
+  <sheetPr>
+    <tabColor theme="5"/>
+  </sheetPr>
   <dimension ref="B1:J21"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
@@ -15823,14 +16483,14 @@
       <c r="B1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="36" t="str">
+      <c r="C1" s="39" t="str">
         <f>'Cover Sheet'!B3</f>
         <v>ERP APPLICATION</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="38"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="41"/>
       <c r="H1" s="5" t="s">
         <v>18</v>
       </c>
@@ -15843,13 +16503,13 @@
       <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="39" t="s">
         <v>184</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="41"/>
       <c r="H2" s="5" t="s">
         <v>5</v>
       </c>
@@ -15862,15 +16522,15 @@
       <c r="B3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="38" t="s">
         <v>185</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
@@ -16182,12 +16842,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{540326D7-3D45-4140-A2C2-97FE8A5B9E90}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="B1:J12"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD18"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16208,14 +16871,14 @@
       <c r="B1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="36" t="str">
+      <c r="C1" s="39" t="str">
         <f>'Cover Sheet'!B3</f>
         <v>ERP APPLICATION</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="38"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="41"/>
       <c r="H1" s="5" t="s">
         <v>18</v>
       </c>
@@ -16228,13 +16891,13 @@
       <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="39" t="s">
         <v>196</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="41"/>
       <c r="H2" s="5" t="s">
         <v>5</v>
       </c>
@@ -16247,15 +16910,15 @@
       <c r="B3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="38" t="s">
         <v>195</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
@@ -16291,7 +16954,7 @@
         <v>24</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>26</v>
@@ -16309,27 +16972,41 @@
       <c r="B8" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="C8" s="12"/>
+      <c r="C8" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="D8" s="12"/>
       <c r="E8" s="13"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="15"/>
+      <c r="I8" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="9" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="C9" s="12"/>
+      <c r="C9" s="12" t="s">
+        <v>70</v>
+      </c>
       <c r="D9" s="12"/>
       <c r="E9" s="13"/>
-      <c r="F9" s="12"/>
+      <c r="F9" s="12">
+        <v>20</v>
+      </c>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="15"/>
+      <c r="I9" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="10" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="12"/>
@@ -16366,8 +17043,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90ED244D-BBA4-4E69-84E6-231843579960}">
+  <sheetPr>
+    <tabColor theme="5"/>
+  </sheetPr>
   <dimension ref="B1:J12"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
@@ -16392,14 +17072,14 @@
       <c r="B1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="36" t="str">
+      <c r="C1" s="39" t="str">
         <f>'Cover Sheet'!B3</f>
         <v>ERP APPLICATION</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="38"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="41"/>
       <c r="H1" s="5" t="s">
         <v>18</v>
       </c>
@@ -16412,13 +17092,13 @@
       <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="39" t="s">
         <v>198</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="41"/>
       <c r="H2" s="5" t="s">
         <v>5</v>
       </c>
@@ -16431,15 +17111,15 @@
       <c r="B3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="38" t="s">
         <v>199</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
@@ -16562,243 +17242,6 @@
       <formula1>"Yes,No"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C11" xr:uid="{CD08BD7D-21BC-4AE1-8D42-9274D68517D1}">
-      <formula1>"uniqueidentifier,bit,varchar,nvarchar,byte,int,smallint,float,decimal,datetime,timestamp"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{773AA57E-21BE-4CEC-9761-B7A769445B51}">
-  <dimension ref="B1:J15"/>
-  <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" customWidth="1"/>
-    <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="42.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="36" t="str">
-        <f>'Cover Sheet'!B3</f>
-        <v>ERP APPLICATION</v>
-      </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="5" t="str">
-        <f>LOOKUP(2,1/(Summary!C13:C600&lt;&gt; ""),Summary!C13:C600 )</f>
-        <v>1.0.2</v>
-      </c>
-    </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>203</v>
-      </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="5" t="str">
-        <f>LOOKUP(2,1/(Summary!D13:D600&lt;&gt; ""),Summary!D13:D600 )</f>
-        <v>Anthony</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>204</v>
-      </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="15"/>
-    </row>
-    <row r="9" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="21" t="s">
-        <v>206</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="15"/>
-    </row>
-    <row r="10" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="15"/>
-    </row>
-    <row r="11" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="15"/>
-    </row>
-    <row r="12" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="15"/>
-    </row>
-    <row r="13" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="15"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="20" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:I3"/>
-  </mergeCells>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D13" xr:uid="{BAB9A0C4-A974-4F2B-9B61-AA094C1F520B}">
-      <formula1>"Yes,No"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C14" xr:uid="{EAF2920F-CFFC-4C0B-9D6C-02EF6FAB5771}">
       <formula1>"uniqueidentifier,bit,varchar,nvarchar,byte,int,smallint,float,decimal,datetime,timestamp"</formula1>
     </dataValidation>
   </dataValidations>
@@ -16837,14 +17280,14 @@
       <c r="B1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="31" t="str">
+      <c r="C1" s="34" t="str">
         <f>'Cover Sheet'!B3</f>
         <v>ERP APPLICATION</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="33"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="36"/>
       <c r="H1" s="9" t="s">
         <v>18</v>
       </c>
@@ -16857,13 +17300,13 @@
       <c r="B2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="33"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="36"/>
       <c r="H2" s="9" t="s">
         <v>5</v>
       </c>
@@ -16876,15 +17319,15 @@
       <c r="B3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
@@ -17372,6 +17815,246 @@
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{773AA57E-21BE-4CEC-9761-B7A769445B51}">
+  <sheetPr>
+    <tabColor theme="5"/>
+  </sheetPr>
+  <dimension ref="B1:J15"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" customWidth="1"/>
+    <col min="9" max="9" width="19" customWidth="1"/>
+    <col min="10" max="10" width="42.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="39" t="str">
+        <f>'Cover Sheet'!B3</f>
+        <v>ERP APPLICATION</v>
+      </c>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="5" t="str">
+        <f>LOOKUP(2,1/(Summary!C13:C600&lt;&gt; ""),Summary!C13:C600 )</f>
+        <v>1.0.2</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="5" t="str">
+        <f>LOOKUP(2,1/(Summary!D13:D600&lt;&gt; ""),Summary!D13:D600 )</f>
+        <v>Anthony</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="15"/>
+    </row>
+    <row r="9" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="15"/>
+    </row>
+    <row r="10" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="15"/>
+    </row>
+    <row r="11" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="15"/>
+    </row>
+    <row r="12" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="15"/>
+    </row>
+    <row r="13" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="15"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:I3"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D13" xr:uid="{BAB9A0C4-A974-4F2B-9B61-AA094C1F520B}">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C14" xr:uid="{EAF2920F-CFFC-4C0B-9D6C-02EF6FAB5771}">
+      <formula1>"uniqueidentifier,bit,varchar,nvarchar,byte,int,smallint,float,decimal,datetime,timestamp"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE60990-B1B6-40EA-91DC-4BB91D189B13}">
   <dimension ref="B1:J20"/>
   <sheetViews>
@@ -17397,14 +18080,14 @@
       <c r="B1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="36" t="str">
+      <c r="C1" s="39" t="str">
         <f>'Cover Sheet'!B3</f>
         <v>ERP APPLICATION</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="38"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="41"/>
       <c r="H1" s="5" t="s">
         <v>18</v>
       </c>
@@ -17417,11 +18100,11 @@
       <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="41"/>
       <c r="H2" s="5" t="s">
         <v>5</v>
       </c>
@@ -17434,15 +18117,15 @@
       <c r="B3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
@@ -17735,14 +18418,14 @@
       <c r="B1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="31" t="str">
+      <c r="C1" s="34" t="str">
         <f>'Cover Sheet'!B3</f>
         <v>ERP APPLICATION</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="33"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="36"/>
       <c r="H1" s="9" t="s">
         <v>18</v>
       </c>
@@ -17755,13 +18438,13 @@
       <c r="B2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="34" t="s">
         <v>215</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="33"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="36"/>
       <c r="H2" s="9" t="s">
         <v>5</v>
       </c>
@@ -17774,15 +18457,15 @@
       <c r="B3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="37" t="s">
         <v>216</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
@@ -18063,14 +18746,14 @@
       <c r="B1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="31" t="str">
+      <c r="C1" s="34" t="str">
         <f>'Cover Sheet'!B3</f>
         <v>ERP APPLICATION</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="33"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="36"/>
       <c r="H1" s="9" t="s">
         <v>18</v>
       </c>
@@ -18083,13 +18766,13 @@
       <c r="B2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="34" t="s">
         <v>217</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="33"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="36"/>
       <c r="H2" s="9" t="s">
         <v>5</v>
       </c>
@@ -18102,15 +18785,15 @@
       <c r="B3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="37" t="s">
         <v>218</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
@@ -18391,14 +19074,14 @@
       <c r="B1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="31" t="str">
+      <c r="C1" s="34" t="str">
         <f>'Cover Sheet'!B3</f>
         <v>ERP APPLICATION</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="33"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="36"/>
       <c r="H1" s="9" t="s">
         <v>18</v>
       </c>
@@ -18411,13 +19094,13 @@
       <c r="B2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="33"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="36"/>
       <c r="H2" s="9" t="s">
         <v>5</v>
       </c>
@@ -18430,15 +19113,15 @@
       <c r="B3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
@@ -18719,14 +19402,14 @@
       <c r="B1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="31" t="str">
+      <c r="C1" s="34" t="str">
         <f>'Cover Sheet'!B3</f>
         <v>ERP APPLICATION</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="33"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="36"/>
       <c r="H1" s="9" t="s">
         <v>18</v>
       </c>
@@ -18739,13 +19422,13 @@
       <c r="B2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="33"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="36"/>
       <c r="H2" s="9" t="s">
         <v>5</v>
       </c>
@@ -18758,15 +19441,15 @@
       <c r="B3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
@@ -19018,21 +19701,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A79209E31D0853459BDDC21BFF41997B" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d790f61d1067e771f6724c31ec4f32ac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="0f278fe2-1c7d-4e0c-9909-a9c4d13c9b87" xmlns:ns4="ce0d4ac8-8917-4b90-bb1c-08eabe5b9b65" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0379e00440097f43ff2e226b337861cd" ns3:_="" ns4:_="">
     <xsd:import namespace="0f278fe2-1c7d-4e0c-9909-a9c4d13c9b87"/>
@@ -19235,10 +19903,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0180F05C-97AB-41CD-91CC-553EB44B7C94}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9020E9E-A9E3-452D-98EB-2F78BDB412DE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="0f278fe2-1c7d-4e0c-9909-a9c4d13c9b87"/>
+    <ds:schemaRef ds:uri="ce0d4ac8-8917-4b90-bb1c-08eabe5b9b65"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -19261,20 +19955,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9020E9E-A9E3-452D-98EB-2F78BDB412DE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0180F05C-97AB-41CD-91CC-553EB44B7C94}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="0f278fe2-1c7d-4e0c-9909-a9c4d13c9b87"/>
-    <ds:schemaRef ds:uri="ce0d4ac8-8917-4b90-bb1c-08eabe5b9b65"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>